--- a/L1DTS - Website Gantt Chart.xlsx
+++ b/L1DTS - Website Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{42E70BD6-CD5A-47DC-855C-79D23A7DFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C784DFF7-E6A8-470B-9120-B87C7645CAC6}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{42E70BD6-CD5A-47DC-855C-79D23A7DFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9096ABD8-07A6-4D2E-98FA-989030B2DF9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,6 +1559,131 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1901,131 +2026,6 @@
         <right/>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C6" s="78" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Start])=0,TODAY(),B11(Milestones4352[Start])),TODAY())</f>
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="73"/>
@@ -3855,7 +3855,7 @@
       <c r="BE6" s="88"/>
       <c r="BF6" s="88" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>October</v>
       </c>
       <c r="BG6" s="88"/>
       <c r="BH6" s="88"/>
@@ -3879,227 +3879,227 @@
       <c r="H7" s="81"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45881</v>
+        <v>45885</v>
       </c>
       <c r="J7" s="97">
         <f ca="1">I7+1</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="K7" s="97">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="L7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="M7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45889</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="O7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45891</v>
       </c>
       <c r="P7" s="97">
         <f ca="1">O7+1</f>
-        <v>45888</v>
+        <v>45892</v>
       </c>
       <c r="Q7" s="97">
         <f ca="1">P7+1</f>
-        <v>45889</v>
+        <v>45893</v>
       </c>
       <c r="R7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="S7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="T7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45896</v>
       </c>
       <c r="U7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45893</v>
+        <v>45897</v>
       </c>
       <c r="V7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45894</v>
+        <v>45898</v>
       </c>
       <c r="W7" s="97">
         <f ca="1">V7+1</f>
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="X7" s="97">
         <f ca="1">W7+1</f>
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="Y7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="Z7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="AA7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="AB7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45900</v>
+        <v>45904</v>
       </c>
       <c r="AC7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="AD7" s="97">
         <f ca="1">AC7+1</f>
-        <v>45902</v>
+        <v>45906</v>
       </c>
       <c r="AE7" s="97">
         <f ca="1">AD7+1</f>
-        <v>45903</v>
+        <v>45907</v>
       </c>
       <c r="AF7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="AG7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="AH7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45906</v>
+        <v>45910</v>
       </c>
       <c r="AI7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45907</v>
+        <v>45911</v>
       </c>
       <c r="AJ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="AK7" s="97">
         <f ca="1">AJ7+1</f>
-        <v>45909</v>
+        <v>45913</v>
       </c>
       <c r="AL7" s="97">
         <f ca="1">AK7+1</f>
-        <v>45910</v>
+        <v>45914</v>
       </c>
       <c r="AM7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="AN7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="AO7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45913</v>
+        <v>45917</v>
       </c>
       <c r="AP7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45914</v>
+        <v>45918</v>
       </c>
       <c r="AQ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="AR7" s="97">
         <f ca="1">AQ7+1</f>
-        <v>45916</v>
+        <v>45920</v>
       </c>
       <c r="AS7" s="97">
         <f ca="1">AR7+1</f>
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="AT7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="AU7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="AV7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="AW7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45921</v>
+        <v>45925</v>
       </c>
       <c r="AX7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="AY7" s="97">
         <f ca="1">AX7+1</f>
-        <v>45923</v>
+        <v>45927</v>
       </c>
       <c r="AZ7" s="97">
         <f ca="1">AY7+1</f>
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="BA7" s="97">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="BB7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="BC7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45927</v>
+        <v>45931</v>
       </c>
       <c r="BD7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="BE7" s="98">
         <f t="shared" ca="1" si="1"/>
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="BF7" s="97">
         <f ca="1">BE7+1</f>
-        <v>45930</v>
+        <v>45934</v>
       </c>
       <c r="BG7" s="97">
         <f ca="1">BF7+1</f>
-        <v>45931</v>
+        <v>45935</v>
       </c>
       <c r="BH7" s="97">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45932</v>
+        <v>45936</v>
       </c>
       <c r="BI7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="BJ7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45934</v>
+        <v>45938</v>
       </c>
       <c r="BK7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45935</v>
+        <v>45939</v>
       </c>
       <c r="BL7" s="98">
         <f t="shared" ca="1" si="2"/>
-        <v>45936</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4191,227 +4191,227 @@
       <c r="H9" s="86"/>
       <c r="I9" s="104" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="J9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="K9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="L9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="M9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="N9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="P9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="R9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="S9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="T9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="U9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="V9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="W9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="Y9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Z9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AM9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AN9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AP9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AR9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AT9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AU9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AW9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AY9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="F12" s="59">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="G12" s="60">
         <v>3</v>
@@ -4974,7 +4974,7 @@
       <c r="E13" s="58"/>
       <c r="F13" s="59">
         <f ca="1">TODAY()+5</f>
-        <v>45881</v>
+        <v>45885</v>
       </c>
       <c r="G13" s="60">
         <v>1</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F14" s="59">
         <f ca="1">F12-3</f>
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="G14" s="60">
         <v>10</v>
@@ -5462,7 +5462,7 @@
       <c r="E15" s="58"/>
       <c r="F15" s="59">
         <f ca="1">F12+20</f>
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="G15" s="60">
         <v>1</v>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="F16" s="59">
         <f ca="1">F12+6</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="G16" s="60">
         <v>6</v>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="F18" s="59">
         <f ca="1">F12+6</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="G18" s="60">
         <v>13</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="F19" s="59">
         <f ca="1">F18+2</f>
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="G19" s="60">
         <v>9</v>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="F20" s="59">
         <f ca="1">F19+5</f>
-        <v>45889</v>
+        <v>45893</v>
       </c>
       <c r="G20" s="60">
         <v>11</v>
@@ -6921,7 +6921,7 @@
       <c r="E21" s="58"/>
       <c r="F21" s="59">
         <f ca="1">F20+2</f>
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="G21" s="60">
         <v>1</v>
@@ -7162,7 +7162,7 @@
       <c r="E22" s="58"/>
       <c r="F22" s="59">
         <f ca="1">F21+1</f>
-        <v>45892</v>
+        <v>45896</v>
       </c>
       <c r="G22" s="60">
         <v>24</v>
@@ -7641,7 +7641,7 @@
       <c r="E24" s="58"/>
       <c r="F24" s="59">
         <f ca="1">F12+15</f>
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="G24" s="60">
         <v>4</v>
@@ -7884,7 +7884,7 @@
       <c r="E25" s="58"/>
       <c r="F25" s="59">
         <f ca="1">F24+3</f>
-        <v>45894</v>
+        <v>45898</v>
       </c>
       <c r="G25" s="60">
         <v>14</v>
@@ -8127,7 +8127,7 @@
       <c r="E26" s="58"/>
       <c r="F26" s="59">
         <f ca="1">F25+15</f>
-        <v>45909</v>
+        <v>45913</v>
       </c>
       <c r="G26" s="60">
         <v>6</v>
@@ -8370,7 +8370,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="59">
         <f ca="1">F21+22</f>
-        <v>45913</v>
+        <v>45917</v>
       </c>
       <c r="G27" s="60">
         <v>3</v>
@@ -8613,7 +8613,7 @@
       <c r="E28" s="58"/>
       <c r="F28" s="59">
         <f ca="1">F16</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="G28" s="60">
         <v>19</v>
@@ -9090,7 +9090,7 @@
       <c r="E30" s="58"/>
       <c r="F30" s="59">
         <f ca="1">F27+3</f>
-        <v>45916</v>
+        <v>45920</v>
       </c>
       <c r="G30" s="60">
         <v>15</v>
@@ -9331,7 +9331,7 @@
       <c r="E31" s="58"/>
       <c r="F31" s="59">
         <f ca="1">F30+14</f>
-        <v>45930</v>
+        <v>45934</v>
       </c>
       <c r="G31" s="60">
         <v>5</v>
@@ -9574,7 +9574,7 @@
       <c r="E32" s="58"/>
       <c r="F32" s="59">
         <f ca="1">F31+42</f>
-        <v>45972</v>
+        <v>45976</v>
       </c>
       <c r="G32" s="60">
         <v>1</v>
@@ -10796,8 +10796,8 @@
   </sheetPr>
   <dimension ref="A1:CX38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12829,227 +12829,227 @@
       <c r="G15" s="24"/>
       <c r="H15" s="19"/>
       <c r="I15" s="125" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ref="I15:AN15" ca="1" si="9">IF(AND($C18="Goal",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="U15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="V15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="W15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="X15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Y15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Z15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AA15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AA$7&gt;=$F18,AA$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AA$7&gt;=$F18,AA$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AB15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AB$7&gt;=$F18,AB$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AB$7&gt;=$F18,AB$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AC15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AC$7&gt;=$F18,AC$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AC$7&gt;=$F18,AC$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AD15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AD$7&gt;=$F18,AD$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AD$7&gt;=$F18,AD$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AE15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AE$7&gt;=$F18,AE$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AE$7&gt;=$F18,AE$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AF15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AG15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AH15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AH$7&gt;=$F18,AH$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AH$7&gt;=$F18,AH$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AI15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AI$7&gt;=$F18,AI$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AI$7&gt;=$F18,AI$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AJ15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AJ$7&gt;=$F18,AJ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AJ$7&gt;=$F18,AJ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AK15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AK$7&gt;=$F18,AK$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AK$7&gt;=$F18,AK$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AL15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AL$7&gt;=$F18,AL$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AL$7&gt;=$F18,AL$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AM15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AM$7&gt;=$F18,AM$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AM$7&gt;=$F18,AM$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AN$7&gt;=$F18,AN$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AN$7&gt;=$F18,AN$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ref="AO15:BL15" ca="1" si="10">IF(AND($C18="Goal",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AP15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AP$7&gt;=$F18,AP$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AP$7&gt;=$F18,AP$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AQ15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AQ$7&gt;=$F18,AQ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AQ$7&gt;=$F18,AQ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AR15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AR$7&gt;=$F18,AR$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AR$7&gt;=$F18,AR$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AS15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AS$7&gt;=$F18,AS$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AS$7&gt;=$F18,AS$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AT15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AT$7&gt;=$F18,AT$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AT$7&gt;=$F18,AT$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AU15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AU$7&gt;=$F18,AU$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AU$7&gt;=$F18,AU$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AV15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AV$7&gt;=$F18,AV$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AV$7&gt;=$F18,AV$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AW15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AW$7&gt;=$F18,AW$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AW$7&gt;=$F18,AW$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AX$7&gt;=$F18,AX$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AX$7&gt;=$F18,AX$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AY$7&gt;=$F18,AY$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AY$7&gt;=$F18,AY$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",AZ$7&gt;=$F18,AZ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AZ$7&gt;=$F18,AZ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BA$7&gt;=$F18,BA$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BA$7&gt;=$F18,BA$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BB$7&gt;=$F18,BB$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BB$7&gt;=$F18,BB$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BC$7&gt;=$F18,BC$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BC$7&gt;=$F18,BC$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BD$7&gt;=$F18,BD$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BD$7&gt;=$F18,BD$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BE$7&gt;=$F18,BE$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BE$7&gt;=$F18,BE$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BF$7&gt;=$F18,BF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BF$7&gt;=$F18,BF$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BG$7&gt;=$F18,BG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BG$7&gt;=$F18,BG$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BH15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BH$7&gt;=$F18,BH$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BH$7&gt;=$F18,BH$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BI15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BI$7&gt;=$F18,BI$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BI$7&gt;=$F18,BI$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BJ15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BJ$7&gt;=$F18,BJ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BJ$7&gt;=$F18,BJ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BK15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BK$7&gt;=$F18,BK$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BK$7&gt;=$F18,BK$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BL15" s="126" t="str">
-        <f ca="1">IF(AND($C18="Goal",BL$7&gt;=$F18,BL$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BL$7&gt;=$F18,BL$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BM15" s="27"/>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="125" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="I16:AN16" ca="1" si="11">IF(AND($C19="Goal",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="J16" s="126" t="str">
@@ -13123,179 +13123,179 @@
         <v/>
       </c>
       <c r="U16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="V16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="W16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="X16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Y16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Z16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AA16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AB16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AC16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$7&gt;=$F19,AH$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$7&gt;=$F19,AH$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$7&gt;=$F19,AI$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$7&gt;=$F19,AI$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$7&gt;=$F19,AJ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$7&gt;=$F19,AJ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$7&gt;=$F19,AK$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$7&gt;=$F19,AK$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$7&gt;=$F19,AL$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$7&gt;=$F19,AL$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$7&gt;=$F19,AM$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$7&gt;=$F19,AM$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AN16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$7&gt;=$F19,AN$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$7&gt;=$F19,AN$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AO16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="AO16:BL16" ca="1" si="12">IF(AND($C19="Goal",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AP16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$7&gt;=$F19,AP$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$7&gt;=$F19,AP$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$7&gt;=$F19,AQ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$7&gt;=$F19,AQ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$7&gt;=$F19,AR$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$7&gt;=$F19,AR$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$7&gt;=$F19,AS$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$7&gt;=$F19,AS$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$7&gt;=$F19,AT$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$7&gt;=$F19,AT$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$7&gt;=$F19,AU$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$7&gt;=$F19,AU$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$7&gt;=$F19,AV$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$7&gt;=$F19,AV$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$7&gt;=$F19,AW$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$7&gt;=$F19,AW$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AX16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$7&gt;=$F19,AX$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$7&gt;=$F19,AX$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AY16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$7&gt;=$F19,AY$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$7&gt;=$F19,AY$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AZ16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$7&gt;=$F19,AZ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$7&gt;=$F19,AZ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BA16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$7&gt;=$F19,BA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$7&gt;=$F19,BA$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BB16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$7&gt;=$F19,BB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$7&gt;=$F19,BB$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BC16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$7&gt;=$F19,BC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$7&gt;=$F19,BC$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BD16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$7&gt;=$F19,BD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$7&gt;=$F19,BD$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BE16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$7&gt;=$F19,BE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$7&gt;=$F19,BE$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BF16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$7&gt;=$F19,BF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$7&gt;=$F19,BF$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BG16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$7&gt;=$F19,BG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$7&gt;=$F19,BG$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BH16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$7&gt;=$F19,BH$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$7&gt;=$F19,BH$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BI16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$7&gt;=$F19,BI$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$7&gt;=$F19,BI$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BJ16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$7&gt;=$F19,BJ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$7&gt;=$F19,BJ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BK16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$7&gt;=$F19,BK$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$7&gt;=$F19,BK$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BL16" s="126" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$7&gt;=$F19,BL$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$7&gt;=$F19,BL$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BM16" s="27"/>
@@ -13321,227 +13321,227 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="125" t="str">
-        <f ca="1">IF(AND($C15="Goal",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="I17:AN17" ca="1" si="13">IF(AND($C15="Goal",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="J17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Q17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="R17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="S17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AH$7&gt;=$F15,AH$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AH$7&gt;=$F15,AH$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AI$7&gt;=$F15,AI$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AI$7&gt;=$F15,AI$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AJ$7&gt;=$F15,AJ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AJ$7&gt;=$F15,AJ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AK$7&gt;=$F15,AK$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AK$7&gt;=$F15,AK$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AL$7&gt;=$F15,AL$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AL$7&gt;=$F15,AL$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AN17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AN$7&gt;=$F15,AN$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AN$7&gt;=$F15,AN$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AO17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="AO17:BL17" ca="1" si="14">IF(AND($C15="Goal",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AP17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AP$7&gt;=$F15,AP$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AP$7&gt;=$F15,AP$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AQ$7&gt;=$F15,AQ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AQ$7&gt;=$F15,AQ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AR$7&gt;=$F15,AR$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AR$7&gt;=$F15,AR$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AS$7&gt;=$F15,AS$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AS$7&gt;=$F15,AS$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AT$7&gt;=$F15,AT$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AT$7&gt;=$F15,AT$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AU$7&gt;=$F15,AU$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AU$7&gt;=$F15,AU$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AV$7&gt;=$F15,AV$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AV$7&gt;=$F15,AV$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AX17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AX$7&gt;=$F15,AX$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AX$7&gt;=$F15,AX$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AY17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AY$7&gt;=$F15,AY$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AY$7&gt;=$F15,AY$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AZ17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",AZ$7&gt;=$F15,AZ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AZ$7&gt;=$F15,AZ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BA17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BA$7&gt;=$F15,BA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BA$7&gt;=$F15,BA$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BB17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BB$7&gt;=$F15,BB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BB$7&gt;=$F15,BB$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BC17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BC$7&gt;=$F15,BC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BC$7&gt;=$F15,BC$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BD17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BD$7&gt;=$F15,BD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BD$7&gt;=$F15,BD$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BE17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BE$7&gt;=$F15,BE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BE$7&gt;=$F15,BE$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BF17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BF$7&gt;=$F15,BF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BF$7&gt;=$F15,BF$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BG17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BH$7&gt;=$F15,BH$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BH$7&gt;=$F15,BH$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BI$7&gt;=$F15,BI$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BI$7&gt;=$F15,BI$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BJ$7&gt;=$F15,BJ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BJ$7&gt;=$F15,BJ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BK$7&gt;=$F15,BK$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BK$7&gt;=$F15,BK$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL17" s="126" t="str">
-        <f ca="1">IF(AND($C15="Goal",BL$7&gt;=$F15,BL$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BL$7&gt;=$F15,BL$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM17" s="27"/>
@@ -13556,227 +13556,227 @@
       <c r="G18" s="24"/>
       <c r="H18" s="19"/>
       <c r="I18" s="125" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="I18:AN18" ca="1" si="15">IF(AND($C17="Goal",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="J18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="T18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="V18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="W18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="X18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Y18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$7&gt;=$F17,AH$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AH$7&gt;=$F17,AH$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$7&gt;=$F17,AI$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AI$7&gt;=$F17,AI$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$7&gt;=$F17,AJ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AJ$7&gt;=$F17,AJ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$7&gt;=$F17,AK$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AK$7&gt;=$F17,AK$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$7&gt;=$F17,AL$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AL$7&gt;=$F17,AL$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$7&gt;=$F17,AN$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AN$7&gt;=$F17,AN$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="AO18:BL18" ca="1" si="16">IF(AND($C17="Goal",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AP18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$7&gt;=$F17,AP$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AP$7&gt;=$F17,AP$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$7&gt;=$F17,AQ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AQ$7&gt;=$F17,AQ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$7&gt;=$F17,AR$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AR$7&gt;=$F17,AR$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$7&gt;=$F17,AS$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AS$7&gt;=$F17,AS$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$7&gt;=$F17,AT$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AT$7&gt;=$F17,AT$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$7&gt;=$F17,AU$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AU$7&gt;=$F17,AU$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$7&gt;=$F17,AV$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AV$7&gt;=$F17,AV$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$7&gt;=$F17,AX$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AX$7&gt;=$F17,AX$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$7&gt;=$F17,AY$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AY$7&gt;=$F17,AY$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$7&gt;=$F17,AZ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AZ$7&gt;=$F17,AZ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$7&gt;=$F17,BA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BA$7&gt;=$F17,BA$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$7&gt;=$F17,BB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BB$7&gt;=$F17,BB$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$7&gt;=$F17,BC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BC$7&gt;=$F17,BC$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$7&gt;=$F17,BD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BD$7&gt;=$F17,BD$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$7&gt;=$F17,BE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BE$7&gt;=$F17,BE$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$7&gt;=$F17,BF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BF$7&gt;=$F17,BF$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$7&gt;=$F17,BH$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BH$7&gt;=$F17,BH$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$7&gt;=$F17,BI$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BI$7&gt;=$F17,BI$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$7&gt;=$F17,BJ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BJ$7&gt;=$F17,BJ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$7&gt;=$F17,BK$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BK$7&gt;=$F17,BK$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL18" s="126" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$7&gt;=$F17,BL$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BL$7&gt;=$F17,BL$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM18" s="27"/>
@@ -13802,227 +13802,227 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="125" t="str">
-        <f ca="1">IF(AND($C16="Goal",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ref="I19:AN19" ca="1" si="17">IF(AND($C16="Goal",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="J19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AD19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AF19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AH19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AM19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AN19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AO19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ref="AO19:BL19" ca="1" si="18">IF(AND($C16="Goal",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AP19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AX19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AY19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AZ19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BA19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BB19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BC19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BD19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BE19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BF19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BG19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BH19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BI19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BJ19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BK19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BL19" s="126" t="str">
-        <f ca="1">IF(AND($C16="Goal",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BM19" s="27"/>
@@ -14048,227 +14048,227 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="125" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="I20:R29" ca="1" si="19">IF(AND($C20="Goal",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="S20:AB29" ca="1" si="20">IF(AND($C20="Goal",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="T20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",Z$7&gt;=$F20,Z$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$7&gt;=$F20,Z$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AC20:AL29" ca="1" si="21">IF(AND($C20="Goal",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AD20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AI$7&gt;=$F20,AI$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$7&gt;=$F20,AI$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AJ$7&gt;=$F20,AJ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$7&gt;=$F20,AJ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AK$7&gt;=$F20,AK$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$7&gt;=$F20,AK$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AL$7&gt;=$F20,AL$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$7&gt;=$F20,AL$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AM$7&gt;=$F20,AM$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$7&gt;=$F20,AM$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AM20:AV29" ca="1" si="22">IF(AND($C20="Goal",AM$7&gt;=$F20,AM$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$7&gt;=$F20,AM$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AN20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AO$7&gt;=$F20,AO$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$7&gt;=$F20,AO$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AP$7&gt;=$F20,AP$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$7&gt;=$F20,AP$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AQ$7&gt;=$F20,AQ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$7&gt;=$F20,AQ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AR$7&gt;=$F20,AR$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$7&gt;=$F20,AR$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AS$7&gt;=$F20,AS$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$7&gt;=$F20,AS$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AT$7&gt;=$F20,AT$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$7&gt;=$F20,AT$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AU$7&gt;=$F20,AU$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$7&gt;=$F20,AU$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AV$7&gt;=$F20,AV$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$7&gt;=$F20,AV$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AW20:BF29" ca="1" si="23">IF(AND($C20="Goal",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AX20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AX$7&gt;=$F20,AX$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$7&gt;=$F20,AX$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AY$7&gt;=$F20,AY$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$7&gt;=$F20,AY$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",AZ$7&gt;=$F20,AZ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$7&gt;=$F20,AZ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BA$7&gt;=$F20,BA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$7&gt;=$F20,BA$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BB$7&gt;=$F20,BB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$7&gt;=$F20,BB$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BC$7&gt;=$F20,BC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$7&gt;=$F20,BC$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BE$7&gt;=$F20,BE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$7&gt;=$F20,BE$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BF$7&gt;=$F20,BF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$7&gt;=$F20,BF$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="BG20:BL29" ca="1" si="24">IF(AND($C20="Goal",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BH20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BH$7&gt;=$F20,BH$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$7&gt;=$F20,BH$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BI$7&gt;=$F20,BI$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$7&gt;=$F20,BI$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BJ$7&gt;=$F20,BJ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$7&gt;=$F20,BJ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BK$7&gt;=$F20,BK$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$7&gt;=$F20,BK$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL20" s="126" t="str">
-        <f ca="1">IF(AND($C20="Goal",BL$7&gt;=$F20,BL$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$7&gt;=$F20,BL$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM20" s="27"/>
@@ -14294,227 +14294,227 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="125" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AM$7&gt;=$F21,AM$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$7&gt;=$F21,AM$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AN$7&gt;=$F21,AN$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$7&gt;=$F21,AN$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AO$7&gt;=$F21,AO$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$7&gt;=$F21,AO$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AP$7&gt;=$F21,AP$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$7&gt;=$F21,AP$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL21" s="126" t="str">
-        <f ca="1">IF(AND($C21="Goal",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM21" s="27"/>
@@ -14540,227 +14540,227 @@
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="125" t="str">
-        <f ca="1">IF(AND($C22="Goal",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AM$7&gt;=$F22,AM$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AM$7&gt;=$F22,AM$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AN$7&gt;=$F22,AN$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AN$7&gt;=$F22,AN$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AO$7&gt;=$F22,AO$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$7&gt;=$F22,AO$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AP$7&gt;=$F22,AP$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AP$7&gt;=$F22,AP$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL22" s="126" t="str">
-        <f ca="1">IF(AND($C22="Goal",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM22" s="27"/>
@@ -14775,227 +14775,227 @@
       <c r="G23" s="24"/>
       <c r="H23" s="19"/>
       <c r="I23" s="125" t="str">
-        <f ca="1">IF(AND($C23="Goal",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL23" s="126" t="str">
-        <f ca="1">IF(AND($C23="Goal",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM23" s="27"/>
@@ -15010,227 +15010,227 @@
       <c r="G24" s="24"/>
       <c r="H24" s="19"/>
       <c r="I24" s="125" t="str">
-        <f ca="1">IF(AND($C24="Goal",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL24" s="126" t="str">
-        <f ca="1">IF(AND($C24="Goal",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM24" s="27"/>
@@ -15245,227 +15245,227 @@
       <c r="G25" s="24"/>
       <c r="H25" s="19"/>
       <c r="I25" s="125" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL25" s="126" t="str">
-        <f ca="1">IF(AND($C25="Goal",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM25" s="27"/>
@@ -15480,227 +15480,227 @@
       <c r="G26" s="24"/>
       <c r="H26" s="19"/>
       <c r="I26" s="125" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL26" s="126" t="str">
-        <f ca="1">IF(AND($C26="Goal",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM26" s="27"/>
@@ -15715,227 +15715,227 @@
       <c r="G27" s="24"/>
       <c r="H27" s="19"/>
       <c r="I27" s="125" t="str">
-        <f ca="1">IF(AND($C27="Goal",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL27" s="126" t="str">
-        <f ca="1">IF(AND($C27="Goal",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM27" s="27"/>
@@ -15950,227 +15950,227 @@
       <c r="G28" s="24"/>
       <c r="H28" s="19"/>
       <c r="I28" s="125" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL28" s="126" t="str">
-        <f ca="1">IF(AND($C28="Goal",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM28" s="27"/>
@@ -16185,227 +16185,227 @@
       <c r="G29" s="24"/>
       <c r="H29" s="19"/>
       <c r="I29" s="125" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL29" s="126" t="str">
-        <f ca="1">IF(AND($C29="Goal",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM29" s="27"/>
@@ -16420,227 +16420,227 @@
       <c r="G30" s="24"/>
       <c r="H30" s="19"/>
       <c r="I30" s="125" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="I30:R35" ca="1" si="25">IF(AND($C30="Goal",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="S30:AB35" ca="1" si="26">IF(AND($C30="Goal",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="T30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="AC30:AL35" ca="1" si="27">IF(AND($C30="Goal",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AD30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="AM30:AV35" ca="1" si="28">IF(AND($C30="Goal",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AN30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AP30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="AW30:BF35" ca="1" si="29">IF(AND($C30="Goal",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AX30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="BG30:BL35" ca="1" si="30">IF(AND($C30="Goal",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BH30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL30" s="126" t="str">
-        <f ca="1">IF(AND($C30="Goal",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BM30" s="27"/>
@@ -16655,227 +16655,227 @@
       <c r="G31" s="24"/>
       <c r="H31" s="19"/>
       <c r="I31" s="125" t="str">
-        <f ca="1">IF(AND($C31="Goal",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="J31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="T31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AD31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AN31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AP31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AX31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BH31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL31" s="126" t="str">
-        <f ca="1">IF(AND($C31="Goal",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BM31" s="27"/>
@@ -16890,227 +16890,227 @@
       <c r="G32" s="24"/>
       <c r="H32" s="19"/>
       <c r="I32" s="125" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="J32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="T32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AD32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AN32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AP32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AX32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BH32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL32" s="126" t="str">
-        <f ca="1">IF(AND($C32="Goal",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BM32" s="27"/>
@@ -17125,227 +17125,227 @@
       <c r="G33" s="24"/>
       <c r="H33" s="19"/>
       <c r="I33" s="125" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="J33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="T33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AD33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AN33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AP33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AX33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BH33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL33" s="126" t="str">
-        <f ca="1">IF(AND($C33="Goal",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BM33" s="27"/>
@@ -17360,227 +17360,227 @@
       <c r="G34" s="24"/>
       <c r="H34" s="19"/>
       <c r="I34" s="125" t="str">
-        <f ca="1">IF(AND($C34="Goal",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="J34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="T34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AD34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AH$7&gt;=$F34,AH$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AH$7&gt;=$F34,AH$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AI$7&gt;=$F34,AI$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AI$7&gt;=$F34,AI$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AJ$7&gt;=$F34,AJ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AJ$7&gt;=$F34,AJ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AK$7&gt;=$F34,AK$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AK$7&gt;=$F34,AK$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AL$7&gt;=$F34,AL$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AL$7&gt;=$F34,AL$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AM$7&gt;=$F34,AM$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AM$7&gt;=$F34,AM$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AN34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AN$7&gt;=$F34,AN$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AN$7&gt;=$F34,AN$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AO$7&gt;=$F34,AO$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AO$7&gt;=$F34,AO$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AP34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AP$7&gt;=$F34,AP$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AP$7&gt;=$F34,AP$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AQ$7&gt;=$F34,AQ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AQ$7&gt;=$F34,AQ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AR$7&gt;=$F34,AR$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AR$7&gt;=$F34,AR$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AS$7&gt;=$F34,AS$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AS$7&gt;=$F34,AS$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AT$7&gt;=$F34,AT$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AT$7&gt;=$F34,AT$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AU$7&gt;=$F34,AU$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AU$7&gt;=$F34,AU$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AV$7&gt;=$F34,AV$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AV$7&gt;=$F34,AV$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AW$7&gt;=$F34,AW$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AW$7&gt;=$F34,AW$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AX34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AX$7&gt;=$F34,AX$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AX$7&gt;=$F34,AX$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AY$7&gt;=$F34,AY$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AY$7&gt;=$F34,AY$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",AZ$7&gt;=$F34,AZ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AZ$7&gt;=$F34,AZ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BA$7&gt;=$F34,BA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BA$7&gt;=$F34,BA$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BB$7&gt;=$F34,BB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BB$7&gt;=$F34,BB$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BC$7&gt;=$F34,BC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BC$7&gt;=$F34,BC$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BD$7&gt;=$F34,BD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BD$7&gt;=$F34,BD$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BE$7&gt;=$F34,BE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BE$7&gt;=$F34,BE$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BF$7&gt;=$F34,BF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BF$7&gt;=$F34,BF$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BG$7&gt;=$F34,BG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BG$7&gt;=$F34,BG$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BH34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BH$7&gt;=$F34,BH$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BH$7&gt;=$F34,BH$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BI$7&gt;=$F34,BI$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BI$7&gt;=$F34,BI$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BJ$7&gt;=$F34,BJ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BJ$7&gt;=$F34,BJ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BK$7&gt;=$F34,BK$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BK$7&gt;=$F34,BK$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL34" s="126" t="str">
-        <f ca="1">IF(AND($C34="Goal",BL$7&gt;=$F34,BL$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BL$7&gt;=$F34,BL$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BM34" s="27"/>
@@ -17595,227 +17595,227 @@
       <c r="G35" s="24"/>
       <c r="H35" s="19"/>
       <c r="I35" s="125" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="J35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="T35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AD35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AN35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AP35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AX35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BH35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL35" s="126" t="str">
-        <f ca="1">IF(AND($C35="Goal",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BM35" s="64"/>
@@ -17954,111 +17954,111 @@
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I15:BL16">
+    <cfRule type="expression" dxfId="44" priority="79" stopIfTrue="1">
+      <formula>AND($C18="Low Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="80" stopIfTrue="1">
+      <formula>AND($C18="High Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="81" stopIfTrue="1">
+      <formula>AND($C18="On Track",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="82" stopIfTrue="1">
+      <formula>AND($C18="Med Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="83" stopIfTrue="1">
+      <formula>AND(LEN($C18)=0,I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:BL17">
+    <cfRule type="expression" dxfId="39" priority="111" stopIfTrue="1">
+      <formula>AND($C15="Low Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="112" stopIfTrue="1">
+      <formula>AND($C15="High Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="113" stopIfTrue="1">
+      <formula>AND($C15="On Track",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="114" stopIfTrue="1">
+      <formula>AND($C15="Med Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="115" stopIfTrue="1">
+      <formula>AND(LEN($C15)=0,I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BL18">
+    <cfRule type="expression" dxfId="34" priority="129" stopIfTrue="1">
+      <formula>AND($C17="Low Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="130" stopIfTrue="1">
+      <formula>AND($C17="High Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="131" stopIfTrue="1">
+      <formula>AND($C17="On Track",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="132" stopIfTrue="1">
+      <formula>AND($C17="Med Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="133" stopIfTrue="1">
+      <formula>AND(LEN($C17)=0,I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="29" priority="117" stopIfTrue="1">
+      <formula>AND($C16="Low Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="118" stopIfTrue="1">
+      <formula>AND($C16="High Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="119" stopIfTrue="1">
+      <formula>AND($C16="On Track",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="120" stopIfTrue="1">
+      <formula>AND($C16="Med Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="121" stopIfTrue="1">
+      <formula>AND(LEN($C16)=0,I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL35">
+    <cfRule type="expression" dxfId="24" priority="135" stopIfTrue="1">
+      <formula>AND($C20="Low Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="136" stopIfTrue="1">
+      <formula>AND($C20="High Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="137" stopIfTrue="1">
+      <formula>AND($C20="On Track",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="138" stopIfTrue="1">
+      <formula>AND($C20="Med Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="139" stopIfTrue="1">
+      <formula>AND(LEN($C20)=0,I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="44" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL16">
-    <cfRule type="expression" dxfId="38" priority="79" stopIfTrue="1">
-      <formula>AND($C18="Low Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="80" stopIfTrue="1">
-      <formula>AND($C18="High Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="81" stopIfTrue="1">
-      <formula>AND($C18="On Track",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="82" stopIfTrue="1">
-      <formula>AND($C18="Med Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="83" stopIfTrue="1">
-      <formula>AND(LEN($C18)=0,I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="33" priority="111" stopIfTrue="1">
-      <formula>AND($C15="Low Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="112" stopIfTrue="1">
-      <formula>AND($C15="High Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="113" stopIfTrue="1">
-      <formula>AND($C15="On Track",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="114" stopIfTrue="1">
-      <formula>AND($C15="Med Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="115" stopIfTrue="1">
-      <formula>AND(LEN($C15)=0,I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL19">
-    <cfRule type="expression" dxfId="28" priority="117" stopIfTrue="1">
-      <formula>AND($C16="Low Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="118" stopIfTrue="1">
-      <formula>AND($C16="High Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="119" stopIfTrue="1">
-      <formula>AND($C16="On Track",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="120" stopIfTrue="1">
-      <formula>AND($C16="Med Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="121" stopIfTrue="1">
-      <formula>AND(LEN($C16)=0,I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="23" priority="129" stopIfTrue="1">
-      <formula>AND($C17="Low Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="130" stopIfTrue="1">
-      <formula>AND($C17="High Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="131" stopIfTrue="1">
-      <formula>AND($C17="On Track",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="132" stopIfTrue="1">
-      <formula>AND($C17="Med Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="133" stopIfTrue="1">
-      <formula>AND(LEN($C17)=0,I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:BL35">
-    <cfRule type="expression" dxfId="18" priority="135" stopIfTrue="1">
-      <formula>AND($C20="Low Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="136" stopIfTrue="1">
-      <formula>AND($C20="High Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="137" stopIfTrue="1">
-      <formula>AND($C20="On Track",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="138" stopIfTrue="1">
-      <formula>AND($C20="Med Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="139" stopIfTrue="1">
-      <formula>AND(LEN($C20)=0,I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -18159,25 +18159,6 @@
           <xm:sqref>I10:BL14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I36:BL36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="78" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -18216,6 +18197,25 @@
           <xm:sqref>I17:BL17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="128" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I18:BL18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="116" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -18235,25 +18235,6 @@
           <xm:sqref>I19:BL19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I18:BL18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="134" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -18271,6 +18252,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I20:BL35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I36:BL36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="C6" s="78" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="73"/>
@@ -18527,7 +18527,7 @@
       <c r="BE6" s="88"/>
       <c r="BF6" s="88" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>October</v>
       </c>
       <c r="BG6" s="88"/>
       <c r="BH6" s="88"/>
@@ -18551,227 +18551,227 @@
       <c r="H7" s="81"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45881</v>
+        <v>45885</v>
       </c>
       <c r="J7" s="97">
         <f ca="1">I7+1</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="K7" s="97">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="L7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="M7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45889</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="O7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45891</v>
       </c>
       <c r="P7" s="97">
         <f ca="1">O7+1</f>
-        <v>45888</v>
+        <v>45892</v>
       </c>
       <c r="Q7" s="97">
         <f ca="1">P7+1</f>
-        <v>45889</v>
+        <v>45893</v>
       </c>
       <c r="R7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="S7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="T7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45896</v>
       </c>
       <c r="U7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45893</v>
+        <v>45897</v>
       </c>
       <c r="V7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45894</v>
+        <v>45898</v>
       </c>
       <c r="W7" s="97">
         <f ca="1">V7+1</f>
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="X7" s="97">
         <f ca="1">W7+1</f>
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="Y7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="Z7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="AA7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="AB7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45900</v>
+        <v>45904</v>
       </c>
       <c r="AC7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="AD7" s="97">
         <f ca="1">AC7+1</f>
-        <v>45902</v>
+        <v>45906</v>
       </c>
       <c r="AE7" s="97">
         <f ca="1">AD7+1</f>
-        <v>45903</v>
+        <v>45907</v>
       </c>
       <c r="AF7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="AG7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="AH7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45906</v>
+        <v>45910</v>
       </c>
       <c r="AI7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45907</v>
+        <v>45911</v>
       </c>
       <c r="AJ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="AK7" s="97">
         <f ca="1">AJ7+1</f>
-        <v>45909</v>
+        <v>45913</v>
       </c>
       <c r="AL7" s="97">
         <f ca="1">AK7+1</f>
-        <v>45910</v>
+        <v>45914</v>
       </c>
       <c r="AM7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="AN7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="AO7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45913</v>
+        <v>45917</v>
       </c>
       <c r="AP7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45914</v>
+        <v>45918</v>
       </c>
       <c r="AQ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="AR7" s="97">
         <f ca="1">AQ7+1</f>
-        <v>45916</v>
+        <v>45920</v>
       </c>
       <c r="AS7" s="97">
         <f ca="1">AR7+1</f>
-        <v>45917</v>
+        <v>45921</v>
       </c>
       <c r="AT7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="AU7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="AV7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="AW7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45921</v>
+        <v>45925</v>
       </c>
       <c r="AX7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="AY7" s="97">
         <f ca="1">AX7+1</f>
-        <v>45923</v>
+        <v>45927</v>
       </c>
       <c r="AZ7" s="97">
         <f ca="1">AY7+1</f>
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="BA7" s="97">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="BB7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="BC7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45927</v>
+        <v>45931</v>
       </c>
       <c r="BD7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45928</v>
+        <v>45932</v>
       </c>
       <c r="BE7" s="98">
         <f t="shared" ca="1" si="1"/>
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="BF7" s="97">
         <f ca="1">BE7+1</f>
-        <v>45930</v>
+        <v>45934</v>
       </c>
       <c r="BG7" s="97">
         <f ca="1">BF7+1</f>
-        <v>45931</v>
+        <v>45935</v>
       </c>
       <c r="BH7" s="97">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45932</v>
+        <v>45936</v>
       </c>
       <c r="BI7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="BJ7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45934</v>
+        <v>45938</v>
       </c>
       <c r="BK7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45935</v>
+        <v>45939</v>
       </c>
       <c r="BL7" s="98">
         <f t="shared" ca="1" si="2"/>
-        <v>45936</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -18863,227 +18863,227 @@
       <c r="H9" s="86"/>
       <c r="I9" s="104" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="J9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="K9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="L9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="M9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="N9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="P9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="R9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="S9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="T9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="U9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="V9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="W9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="Y9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Z9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AM9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AN9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AP9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AR9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AT9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AU9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AW9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AY9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="F12" s="59">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="G12" s="60">
         <v>3</v>
@@ -19646,7 +19646,7 @@
       <c r="E13" s="58"/>
       <c r="F13" s="59">
         <f ca="1">TODAY()+5</f>
-        <v>45881</v>
+        <v>45885</v>
       </c>
       <c r="G13" s="60">
         <v>1</v>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="F14" s="59">
         <f ca="1">F12-3</f>
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="G14" s="60">
         <v>10</v>
@@ -20134,7 +20134,7 @@
       <c r="E15" s="58"/>
       <c r="F15" s="59">
         <f ca="1">F12+20</f>
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="G15" s="60">
         <v>1</v>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="F16" s="59">
         <f ca="1">F12+6</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="G16" s="60">
         <v>6</v>
@@ -20860,7 +20860,7 @@
       </c>
       <c r="F18" s="59">
         <f ca="1">F12+6</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="G18" s="60">
         <v>13</v>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="F19" s="59">
         <f ca="1">F18+2</f>
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="G19" s="60">
         <v>9</v>
@@ -21350,7 +21350,7 @@
       </c>
       <c r="F20" s="59">
         <f ca="1">F19+5</f>
-        <v>45889</v>
+        <v>45893</v>
       </c>
       <c r="G20" s="60">
         <v>11</v>
@@ -21593,7 +21593,7 @@
       <c r="E21" s="58"/>
       <c r="F21" s="59">
         <f ca="1">F20+2</f>
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="G21" s="60">
         <v>1</v>
@@ -21834,7 +21834,7 @@
       <c r="E22" s="58"/>
       <c r="F22" s="59">
         <f ca="1">F21+1</f>
-        <v>45892</v>
+        <v>45896</v>
       </c>
       <c r="G22" s="60">
         <v>24</v>
@@ -22313,7 +22313,7 @@
       <c r="E24" s="58"/>
       <c r="F24" s="59">
         <f ca="1">F12+15</f>
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="G24" s="60">
         <v>4</v>
@@ -22556,7 +22556,7 @@
       <c r="E25" s="58"/>
       <c r="F25" s="59">
         <f ca="1">F24+3</f>
-        <v>45894</v>
+        <v>45898</v>
       </c>
       <c r="G25" s="60">
         <v>14</v>
@@ -22799,7 +22799,7 @@
       <c r="E26" s="58"/>
       <c r="F26" s="59">
         <f ca="1">F25+15</f>
-        <v>45909</v>
+        <v>45913</v>
       </c>
       <c r="G26" s="60">
         <v>6</v>
@@ -23042,7 +23042,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="59">
         <f ca="1">F21+22</f>
-        <v>45913</v>
+        <v>45917</v>
       </c>
       <c r="G27" s="60">
         <v>3</v>
@@ -23285,7 +23285,7 @@
       <c r="E28" s="58"/>
       <c r="F28" s="59">
         <f ca="1">F16</f>
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="G28" s="60">
         <v>19</v>
@@ -23762,7 +23762,7 @@
       <c r="E30" s="58"/>
       <c r="F30" s="59">
         <f ca="1">F27+3</f>
-        <v>45916</v>
+        <v>45920</v>
       </c>
       <c r="G30" s="60">
         <v>15</v>
@@ -24003,7 +24003,7 @@
       <c r="E31" s="58"/>
       <c r="F31" s="59">
         <f ca="1">F30+14</f>
-        <v>45930</v>
+        <v>45934</v>
       </c>
       <c r="G31" s="60">
         <v>5</v>
@@ -24246,7 +24246,7 @@
       <c r="E32" s="58"/>
       <c r="F32" s="59">
         <f ca="1">F31+42</f>
-        <v>45972</v>
+        <v>45976</v>
       </c>
       <c r="G32" s="60">
         <v>1</v>
@@ -25462,6 +25462,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25761,36 +25790,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CDF409-87B8-4BD3-A7A0-FA31B09DB512}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25811,26 +25831,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>